--- a/Zeitaufzeichnung/Sprint5 5Schuhljahr.xlsx
+++ b/Zeitaufzeichnung/Sprint5 5Schuhljahr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuljahr\syp\Projekt\multiflexlbkv\multiflexlbkv\Zeitaufzeichnung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\5CHIF\Syp\multiflexlbkv\Zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521B2862-8B0F-4FCB-8CF1-66556CA02F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA73F3F9-6168-4D06-A10B-28C9B51DB880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12012" activeTab="1" xr2:uid="{DE4AF553-B22C-4BF0-B016-1373DC96BC61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE4AF553-B22C-4BF0-B016-1373DC96BC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hauptseite" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -429,19 +429,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -449,21 +436,6 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
         <color auto="1"/>
       </top>
       <bottom style="dotted">
@@ -491,34 +463,6 @@
         <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -680,6 +624,97 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -735,54 +770,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -795,28 +814,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -828,9 +847,54 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,50 +919,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1217,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0065E909-0803-4647-889F-A411B5E1985E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,48 +1264,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="68">
         <f>'Info Seite'!F17</f>
         <v>0.91666666666666685</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="69">
         <f>'Info Seite'!O16</f>
         <v>0.60416666666666674</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="73">
         <f>'Info Seite'!X16</f>
         <v>0.58333333333333348</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="71">
         <f>SUM(B3+B5+B4)</f>
         <v>2.104166666666667</v>
       </c>
@@ -1287,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74428210-A4B0-4DCC-AF03-A9A1BB509680}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
@@ -1302,128 +1338,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
@@ -1459,35 +1495,35 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
@@ -1498,35 +1534,35 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="55" t="str">
+      <c r="P7" s="64" t="str">
         <f>G7</f>
         <v>Sprint: September</v>
       </c>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="57"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="66"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="55" t="str">
+      <c r="Y7" s="64" t="str">
         <f>G7</f>
         <v>Sprint: September</v>
       </c>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="66"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
@@ -1549,11 +1585,11 @@
       <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
       <c r="J8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1572,11 +1608,11 @@
       <c r="O8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="50" t="s">
+      <c r="P8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
       <c r="S8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1595,626 +1631,625 @@
       <c r="X8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="50" t="s">
+      <c r="Y8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="52"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="61"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="1:29" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="43">
         <v>44935</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="33">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="39">
+      <c r="F9" s="33">
         <f t="shared" ref="F9" si="0">SUM(D9-C9)</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="43">
         <v>44936</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="33">
         <v>0.5</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="N9" s="9"/>
-      <c r="O9" s="39">
+      <c r="O9" s="33">
         <f t="shared" ref="O9:O15" si="1">SUM(M9-L9)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P9" s="58" t="s">
+      <c r="P9" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="59"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="50"/>
       <c r="S9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="71">
+      <c r="T9" s="46">
         <v>44936</v>
       </c>
-      <c r="U9" s="41">
+      <c r="U9" s="35">
         <v>0.5</v>
       </c>
-      <c r="V9" s="41">
+      <c r="V9" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="W9" s="34"/>
-      <c r="X9" s="36">
+      <c r="W9" s="28"/>
+      <c r="X9" s="30">
         <f t="shared" ref="X9:X15" si="2">SUM(V9-U9)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Y9" s="58" t="s">
+      <c r="Y9" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="59"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="50"/>
       <c r="AB9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AC9" s="29">
+      <c r="AC9" s="27">
         <f>SUM(X16+O16+F17)</f>
         <v>2.104166666666667</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="43">
         <v>44936</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="33">
         <v>0.5</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="39">
+      <c r="F10" s="33">
         <f t="shared" ref="F10:F16" si="3">SUM(D10-C10-E10)</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="47">
         <v>44939</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="33">
         <v>0.75</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="35">
         <v>0.83333333333333337</v>
       </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="39">
+      <c r="N10" s="40"/>
+      <c r="O10" s="33">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P10" s="58" t="s">
+      <c r="P10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="59"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="50"/>
       <c r="S10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="71">
+      <c r="T10" s="46">
         <v>44938</v>
       </c>
-      <c r="U10" s="41">
+      <c r="U10" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="V10" s="41">
+      <c r="V10" s="35">
         <v>0.45833333333333331</v>
       </c>
-      <c r="W10" s="37"/>
-      <c r="X10" s="36">
+      <c r="W10" s="31"/>
+      <c r="X10" s="30">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="Y10" s="58" t="s">
+      <c r="Y10" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="59"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="50"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="47">
         <v>44939</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="33">
         <v>0.75</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="35">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39">
+      <c r="E11" s="33"/>
+      <c r="F11" s="33">
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="47">
         <v>44942</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="33">
         <v>0.75</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="35">
         <v>0.83333333333333337</v>
       </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="39">
+      <c r="O11" s="33">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="P11" s="58" t="s">
+      <c r="P11" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="59"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="50"/>
       <c r="S11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="71">
+      <c r="T11" s="46">
         <v>44941</v>
       </c>
-      <c r="U11" s="41">
+      <c r="U11" s="35">
         <v>0.625</v>
       </c>
-      <c r="V11" s="41">
+      <c r="V11" s="35">
         <v>0.75</v>
       </c>
       <c r="W11" s="9"/>
-      <c r="X11" s="39">
+      <c r="X11" s="33">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="Y11" s="58" t="s">
+      <c r="Y11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="59"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="50"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="47">
         <v>44942</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="33">
         <v>0.75</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="35">
         <v>0.83333333333333337</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="39">
+      <c r="F12" s="33">
         <f t="shared" si="3"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="23" t="s">
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="72">
+      <c r="K12" s="47">
         <v>44943</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="33">
         <v>0.875</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="35">
         <v>0.9375</v>
       </c>
       <c r="N12" s="9"/>
-      <c r="O12" s="39">
+      <c r="O12" s="33">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="P12" s="58" t="s">
+      <c r="P12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="59"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="50"/>
       <c r="S12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="71">
+      <c r="T12" s="46">
         <v>44943</v>
       </c>
-      <c r="U12" s="41">
+      <c r="U12" s="35">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V12" s="41">
+      <c r="V12" s="35">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W12" s="34"/>
-      <c r="X12" s="39">
+      <c r="W12" s="28"/>
+      <c r="X12" s="33">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="Y12" s="58" t="s">
+      <c r="Y12" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="59"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="50"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="47">
         <v>44943</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="33">
         <v>0.875</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="35">
         <v>0.9375</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="39">
+      <c r="F13" s="33">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="47">
         <v>44946</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="33">
         <v>0.58333333333333337</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="35">
         <v>0.75</v>
       </c>
       <c r="N13" s="9"/>
-      <c r="O13" s="39">
+      <c r="O13" s="33">
         <f t="shared" si="1"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="P13" s="58" t="s">
+      <c r="P13" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="59"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="50"/>
       <c r="S13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="47">
+      <c r="T13" s="41">
         <v>44945</v>
       </c>
-      <c r="U13" s="41">
+      <c r="U13" s="35">
         <v>0.79166666666666663</v>
       </c>
-      <c r="V13" s="41">
+      <c r="V13" s="35">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W13" s="38"/>
-      <c r="X13" s="36">
+      <c r="W13" s="32"/>
+      <c r="X13" s="30">
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="Y13" s="58" t="s">
+      <c r="Y13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="59"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="47">
         <v>44946</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="33">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="35">
         <v>0.75</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="39">
+      <c r="F14" s="33">
         <f t="shared" si="3"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="44">
         <v>44948</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="33">
         <v>0.66666666666666663</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="35">
         <v>0.72916666666666663</v>
       </c>
       <c r="N14" s="9"/>
-      <c r="O14" s="39">
+      <c r="O14" s="33">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="P14" s="58" t="s">
+      <c r="P14" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="59"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="50"/>
       <c r="S14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="47">
+      <c r="T14" s="41">
         <v>44946</v>
       </c>
-      <c r="U14" s="41">
+      <c r="U14" s="35">
         <v>0.83333333333333337</v>
       </c>
-      <c r="V14" s="41">
+      <c r="V14" s="35">
         <v>0.875</v>
       </c>
       <c r="W14" s="9"/>
-      <c r="X14" s="36">
+      <c r="X14" s="30">
         <f t="shared" si="2"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="Y14" s="58" t="s">
+      <c r="Y14" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="59"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="50"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="44">
         <v>44948</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="33">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="35">
         <v>0.79166666666666663</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="39">
+      <c r="F15" s="33">
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="70">
+      <c r="K15" s="45">
         <v>44949</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="34">
         <v>0.39583333333333331</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="36">
         <v>0.45833333333333331</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="36">
+      <c r="N15" s="23"/>
+      <c r="O15" s="30">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="P15" s="60" t="s">
+      <c r="P15" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="28" t="s">
+      <c r="Q15" s="52"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="T15" s="48">
+      <c r="T15" s="42">
         <v>44948</v>
       </c>
-      <c r="U15" s="42">
+      <c r="U15" s="36">
         <v>0.45833333333333331</v>
       </c>
-      <c r="V15" s="42">
+      <c r="V15" s="36">
         <v>0.5</v>
       </c>
-      <c r="W15" s="25"/>
-      <c r="X15" s="36">
+      <c r="W15" s="23"/>
+      <c r="X15" s="30">
         <f t="shared" si="2"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="Y15" s="60" t="s">
+      <c r="Y15" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="61"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="56"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="45">
         <v>44949</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="34">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="36">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="36">
+      <c r="E16" s="23"/>
+      <c r="F16" s="30">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="27">
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="25">
         <f>SUM(O7:O15)</f>
         <v>0.60416666666666674</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="27">
+      <c r="X16" s="25">
         <f>SUM(X7:X15)</f>
         <v>0.58333333333333348</v>
       </c>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="15"/>
     </row>
     <row r="17" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <f>SUM(F8:F16)</f>
         <v>0.91666666666666685</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
     </row>
     <row r="18" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="22"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A1:AA4"/>
+    <mergeCell ref="A6:AA6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="Y7:AA7"/>
     <mergeCell ref="Y15:AA15"/>
     <mergeCell ref="Y16:AA16"/>
     <mergeCell ref="Y13:AA13"/>
@@ -2224,18 +2259,19 @@
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A1:AA4"/>
-    <mergeCell ref="A6:AA6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="G11:I11"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y10:AA10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
